--- a/fuaid.xlsx
+++ b/fuaid.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\program\PyParser\parser_xlsx\parser_xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4745C58D-495F-4815-854C-4797564276AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,31 +27,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="177">
   <si>
-    <t xml:space="preserve">№</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Група</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patronymic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пошта</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Телефон</t>
-  </si>
-  <si>
-    <t xml:space="preserve">corp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113 Прикладна математика</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19У</t>
+    <t>№</t>
+  </si>
+  <si>
+    <t>spec</t>
+  </si>
+  <si>
+    <t>Група</t>
+  </si>
+  <si>
+    <t>patronymic</t>
+  </si>
+  <si>
+    <t>Пошта</t>
+  </si>
+  <si>
+    <t>Телефон</t>
+  </si>
+  <si>
+    <t>corp</t>
+  </si>
+  <si>
+    <t>113 Прикладна математика</t>
+  </si>
+  <si>
+    <t>19У</t>
   </si>
   <si>
     <t xml:space="preserve">Драгні Тимофій Андрійович </t>
@@ -55,7 +60,7 @@
     <t xml:space="preserve">dragnitima37@gmail.com  </t>
   </si>
   <si>
-    <t xml:space="preserve">drahni113@idguonline.net</t>
+    <t>drahni113@idguonline.net</t>
   </si>
   <si>
     <t xml:space="preserve">Комарова Мирослава В'ячеславівна </t>
@@ -64,13 +69,13 @@
     <t xml:space="preserve">komarovamiroslava9@gmail.com </t>
   </si>
   <si>
-    <t xml:space="preserve">komarova113@idguonline.net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">014 Середня освіта</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15У</t>
+    <t>komarova113@idguonline.net</t>
+  </si>
+  <si>
+    <t>014 Середня освіта</t>
+  </si>
+  <si>
+    <t>15У</t>
   </si>
   <si>
     <t xml:space="preserve">Яніогло Юлія Георгіївна </t>
@@ -79,19 +84,19 @@
     <t xml:space="preserve">yanioglo157@gmail.com </t>
   </si>
   <si>
-    <t xml:space="preserve">yaniohlo014@idguonline.net</t>
+    <t>yaniohlo014@idguonline.net</t>
   </si>
   <si>
     <t xml:space="preserve">Яманді Марина Сергіївна </t>
   </si>
   <si>
-    <t xml:space="preserve">marinka.com.malinka@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yamandi014@idguonline.net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13У</t>
+    <t>marinka.com.malinka@gmail.com</t>
+  </si>
+  <si>
+    <t>yamandi014@idguonline.net</t>
+  </si>
+  <si>
+    <t>13У</t>
   </si>
   <si>
     <t xml:space="preserve">Гуржій Ксенія Олександрівна </t>
@@ -100,73 +105,73 @@
     <t xml:space="preserve">kseniagurjii@gmail.com </t>
   </si>
   <si>
-    <t xml:space="preserve">hurzhii014@idguonline.net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Жужунова Ольга Вікторівна</t>
+    <t>hurzhii014@idguonline.net</t>
+  </si>
+  <si>
+    <t>Жужунова Ольга Вікторівна</t>
   </si>
   <si>
     <t xml:space="preserve"> zhuzhunovaolay@gmail.com </t>
   </si>
   <si>
-    <t xml:space="preserve">zhuzhunova014@idguonline.net</t>
+    <t>zhuzhunova014@idguonline.net</t>
   </si>
   <si>
     <t xml:space="preserve">Самойлова Анастасія Володимирівна </t>
   </si>
   <si>
-    <t xml:space="preserve">Grejzmere@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">samoilova014@idguonline.net</t>
+    <t>Grejzmere@gmail.com</t>
+  </si>
+  <si>
+    <t>samoilova014@idguonline.net</t>
   </si>
   <si>
     <t xml:space="preserve">Діденко Віталій Павлович </t>
   </si>
   <si>
-    <t xml:space="preserve">didenkovitalij1@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">didenko014@idguonline.net</t>
+    <t>didenkovitalij1@gmail.com</t>
+  </si>
+  <si>
+    <t>didenko014@idguonline.net</t>
   </si>
   <si>
     <t xml:space="preserve">Югаленко Владислава Юріївна  </t>
   </si>
   <si>
-    <t xml:space="preserve">Vladislava.3724@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yuhalenko014@idguonline.net</t>
+    <t>Vladislava.3724@gmail.com</t>
+  </si>
+  <si>
+    <t>yuhalenko014@idguonline.net</t>
   </si>
   <si>
     <t xml:space="preserve">Узун Сергій Вадимович </t>
   </si>
   <si>
-    <t xml:space="preserve">sergey.zodex@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uzun014@idguonline.net</t>
+    <t>sergey.zodex@gmail.com</t>
+  </si>
+  <si>
+    <t>uzun014@idguonline.net</t>
   </si>
   <si>
     <t xml:space="preserve">Гамов Дмитро Олександрович  </t>
   </si>
   <si>
-    <t xml:space="preserve">dimagmv@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hamov014@idguonline.net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18У</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Могучова Ольга Вячеславiвна</t>
+    <t>dimagmv@gmail.com</t>
+  </si>
+  <si>
+    <t>hamov014@idguonline.net</t>
+  </si>
+  <si>
+    <t>18У</t>
+  </si>
+  <si>
+    <t>Могучова Ольга Вячеславiвна</t>
   </si>
   <si>
     <t xml:space="preserve"> olechka.mogucheva@gmail.com </t>
   </si>
   <si>
-    <t xml:space="preserve">mohuchova014@idguonline.net</t>
+    <t>mohuchova014@idguonline.net</t>
   </si>
   <si>
     <t xml:space="preserve">Малихін Артем Вадимович </t>
@@ -175,7 +180,7 @@
     <t xml:space="preserve">tema.malyhin@gmail.com </t>
   </si>
   <si>
-    <t xml:space="preserve">malykhin014@idguonline.net</t>
+    <t>malykhin014@idguonline.net</t>
   </si>
   <si>
     <t xml:space="preserve">Лисенко Ірина Віталіївна </t>
@@ -184,7 +189,7 @@
     <t xml:space="preserve"> irinalysenko2610@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">lysenko014@idguonline.net</t>
+    <t>lysenko014@idguonline.net</t>
   </si>
   <si>
     <t xml:space="preserve">Гугай Ангеліна Максимівна </t>
@@ -193,73 +198,73 @@
     <t xml:space="preserve"> angelinagugaj@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">huhai014@idguonline.net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кудьярова Юлія Ігорівна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ntelephone8@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kudiarova014@idguonline.net</t>
+    <t>huhai014@idguonline.net</t>
+  </si>
+  <si>
+    <t>Кудьярова Юлія Ігорівна</t>
+  </si>
+  <si>
+    <t>ntelephone8@gmail.com</t>
+  </si>
+  <si>
+    <t>kudiarova014@idguonline.net</t>
   </si>
   <si>
     <t xml:space="preserve">Маргаринт Маріанна Іванівна </t>
   </si>
   <si>
-    <t xml:space="preserve">mariannamargarint18@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marharynt014@idguonline.net</t>
+    <t>mariannamargarint18@gmail.com</t>
+  </si>
+  <si>
+    <t>marharynt014@idguonline.net</t>
   </si>
   <si>
     <t xml:space="preserve">Мирзахмедова Анастасія Муратівна </t>
   </si>
   <si>
-    <t xml:space="preserve">mirzahmedovanastia@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">myrzakhmedova014@idguonline.net</t>
+    <t>mirzahmedovanastia@gmail.com</t>
+  </si>
+  <si>
+    <t>myrzakhmedova014@idguonline.net</t>
   </si>
   <si>
     <t xml:space="preserve">Татару Юлія Олегівна </t>
   </si>
   <si>
-    <t xml:space="preserve">ulatataru4@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tataru014@idguonline.net</t>
+    <t>ulatataru4@gmail.com</t>
+  </si>
+  <si>
+    <t>tataru014@idguonline.net</t>
   </si>
   <si>
     <t xml:space="preserve">Тіхня Галина Олександрівна </t>
   </si>
   <si>
-    <t xml:space="preserve">galina.tikhia@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tikhnia014@idguonline.net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Руссєва Кристина Сергіївна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kristinarusseva5817@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">russieva014@idguonline.net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16У</t>
+    <t>galina.tikhia@gmail.com</t>
+  </si>
+  <si>
+    <t>tikhnia014@idguonline.net</t>
+  </si>
+  <si>
+    <t>Руссєва Кристина Сергіївна</t>
+  </si>
+  <si>
+    <t>kristinarusseva5817@gmail.com</t>
+  </si>
+  <si>
+    <t>russieva014@idguonline.net</t>
+  </si>
+  <si>
+    <t>16У</t>
   </si>
   <si>
     <t xml:space="preserve">Гросу Аліна Олегівна </t>
   </si>
   <si>
-    <t xml:space="preserve">alinka.grosu15@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hrosu014@idguonline.net</t>
+    <t>alinka.grosu15@gmail.com</t>
+  </si>
+  <si>
+    <t>hrosu014@idguonline.net</t>
   </si>
   <si>
     <t xml:space="preserve">Дімітрова Яна В‘ячеславівна </t>
@@ -268,25 +273,25 @@
     <t xml:space="preserve"> yanadimitrova36@gmail.com </t>
   </si>
   <si>
-    <t xml:space="preserve">dimitrova014@idguonline.net</t>
+    <t>dimitrova014@idguonline.net</t>
   </si>
   <si>
     <t xml:space="preserve">Грамма Дарія Юріївна </t>
   </si>
   <si>
-    <t xml:space="preserve">grammadasha@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hramma014@idguonline.net</t>
+    <t>grammadasha@gmail.com</t>
+  </si>
+  <si>
+    <t>hramma014@idguonline.net</t>
   </si>
   <si>
     <t xml:space="preserve">Фрумузакі Юлія Валентинівна </t>
   </si>
   <si>
-    <t xml:space="preserve">gyuliterator@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">frumuzaki014@idguonline.net</t>
+    <t>gyuliterator@gmail.com</t>
+  </si>
+  <si>
+    <t>frumuzaki014@idguonline.net</t>
   </si>
   <si>
     <t xml:space="preserve">Стойловський Сергій Миколайович </t>
@@ -295,34 +300,34 @@
     <t xml:space="preserve">digidugm0n240@gmail.com </t>
   </si>
   <si>
-    <t xml:space="preserve">stoilovskyi014@idguonline.net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">071 Облік і оподаткування</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-13У</t>
+    <t>stoilovskyi014@idguonline.net</t>
+  </si>
+  <si>
+    <t>071 Облік і оподаткування</t>
+  </si>
+  <si>
+    <t>1-13У</t>
   </si>
   <si>
     <t xml:space="preserve">Булгару Ірина Валеріївна  </t>
   </si>
   <si>
-    <t xml:space="preserve">irinabulgaru2@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bulharu071@idguonline.net</t>
+    <t>irinabulgaru2@gmail.com</t>
+  </si>
+  <si>
+    <t>bulharu071@idguonline.net</t>
   </si>
   <si>
     <t xml:space="preserve">Белінська Анастасія Валеріївна </t>
   </si>
   <si>
-    <t xml:space="preserve">@anastasiabelinskaa5@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">belinska071@idguonline.net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12У</t>
+    <t>@anastasiabelinskaa5@gmail.com</t>
+  </si>
+  <si>
+    <t>belinska071@idguonline.net</t>
+  </si>
+  <si>
+    <t>12У</t>
   </si>
   <si>
     <t xml:space="preserve">Поволяшко Кирило Валерійович </t>
@@ -331,7 +336,7 @@
     <t xml:space="preserve">pkman799@gmail.com </t>
   </si>
   <si>
-    <t xml:space="preserve">povoliashko014@idguonline.net</t>
+    <t>povoliashko014@idguonline.net</t>
   </si>
   <si>
     <t xml:space="preserve">Лукін Владислав Вячеславович </t>
@@ -340,25 +345,25 @@
     <t xml:space="preserve">vladlukin29@gmail.com  </t>
   </si>
   <si>
-    <t xml:space="preserve">lukin014@idguonline.net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Степанов Олександр Андрійович</t>
+    <t>lukin014@idguonline.net</t>
+  </si>
+  <si>
+    <t>Степанов Олександр Андрійович</t>
   </si>
   <si>
     <t xml:space="preserve">godnessselemine@gmail.com </t>
   </si>
   <si>
-    <t xml:space="preserve">stepanov014@idguonline.net</t>
+    <t>stepanov014@idguonline.net</t>
   </si>
   <si>
     <t xml:space="preserve">Колесников Олександр Андрійович </t>
   </si>
   <si>
-    <t xml:space="preserve">sasha.kolesnikov228@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kolesnykov014@idguonline.net</t>
+    <t>sasha.kolesnikov228@gmail.com</t>
+  </si>
+  <si>
+    <t>kolesnykov014@idguonline.net</t>
   </si>
   <si>
     <t xml:space="preserve">Стариш Іван Іванович </t>
@@ -367,7 +372,7 @@
     <t xml:space="preserve">vanastarys626@gmail.com </t>
   </si>
   <si>
-    <t xml:space="preserve">starysh014@idguonline.net</t>
+    <t>starysh014@idguonline.net</t>
   </si>
   <si>
     <t xml:space="preserve">Пєткова Софія Олександрівна </t>
@@ -376,7 +381,7 @@
     <t xml:space="preserve">sonec1kaa@gmail.com </t>
   </si>
   <si>
-    <t xml:space="preserve">pietkova014@idguonline.net</t>
+    <t>pietkova014@idguonline.net</t>
   </si>
   <si>
     <t xml:space="preserve">Шмирьова Наталя Володимирівна </t>
@@ -385,7 +390,7 @@
     <t xml:space="preserve"> littleymmy@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">shmyrova014@idguonline.net</t>
+    <t>shmyrova014@idguonline.net</t>
   </si>
   <si>
     <t xml:space="preserve">Попазов Богдан Вікторович </t>
@@ -394,7 +399,7 @@
     <t xml:space="preserve">bodyaluci@gmail.com </t>
   </si>
   <si>
-    <t xml:space="preserve">popazov014@idguonline.net</t>
+    <t>popazov014@idguonline.net</t>
   </si>
   <si>
     <t xml:space="preserve">Кім Еріка Владиславівна </t>
@@ -403,16 +408,16 @@
     <t xml:space="preserve">esthete1n4he6ox@gmail.com </t>
   </si>
   <si>
-    <t xml:space="preserve">kim_erika014@idguonline.net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Улезько Ростислав Анатолійович</t>
+    <t>kim_erika014@idguonline.net</t>
+  </si>
+  <si>
+    <t>Улезько Ростислав Анатолійович</t>
   </si>
   <si>
     <t xml:space="preserve">ulezkor@gmail.com </t>
   </si>
   <si>
-    <t xml:space="preserve">ulezko014@idguonline.net</t>
+    <t>ulezko014@idguonline.net</t>
   </si>
   <si>
     <t xml:space="preserve">Гросу Игорь Станiславович </t>
@@ -421,37 +426,37 @@
     <t xml:space="preserve">Igorgrosu2003@gmail.com </t>
   </si>
   <si>
-    <t xml:space="preserve">hrosu_ihor014@idguonline.net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гниличенко Анастасія Михайлівна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gnilicenkoa@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hnylychenko014@idguonline.net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11У</t>
+    <t>hrosu_ihor014@idguonline.net</t>
+  </si>
+  <si>
+    <t>Гниличенко Анастасія Михайлівна</t>
+  </si>
+  <si>
+    <t>gnilicenkoa@gmail.com</t>
+  </si>
+  <si>
+    <t>hnylychenko014@idguonline.net</t>
+  </si>
+  <si>
+    <t>11У</t>
   </si>
   <si>
     <t xml:space="preserve">Кравченко Ігор Іванович </t>
   </si>
   <si>
-    <t xml:space="preserve">igarkravcenko44@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kravchenko014@idguonline.net</t>
+    <t>igarkravcenko44@gmail.com</t>
+  </si>
+  <si>
+    <t>kravchenko014@idguonline.net</t>
   </si>
   <si>
     <t xml:space="preserve">Кошельник Юлія Володимирівна </t>
   </si>
   <si>
-    <t xml:space="preserve">juliaugrik03@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">koshelnyk014@idguonline.net</t>
+    <t>juliaugrik03@gmail.com</t>
+  </si>
+  <si>
+    <t>koshelnyk014@idguonline.net</t>
   </si>
   <si>
     <t xml:space="preserve">Денисов Григорій Сергійович </t>
@@ -460,55 +465,55 @@
     <t xml:space="preserve"> grigoriy.denisov.izmail@gmail.com </t>
   </si>
   <si>
-    <t xml:space="preserve">denysov014@idguonline.net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-11У</t>
+    <t>denysov014@idguonline.net</t>
+  </si>
+  <si>
+    <t>1-11У</t>
   </si>
   <si>
     <t xml:space="preserve">Оарзи Дарія Анатоліївна </t>
   </si>
   <si>
-    <t xml:space="preserve">oarzy.darya@ukr.net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oarzy014@idguonline.net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110У</t>
+    <t>oarzy.darya@ukr.net</t>
+  </si>
+  <si>
+    <t>oarzy014@idguonline.net</t>
+  </si>
+  <si>
+    <t>110У</t>
   </si>
   <si>
     <t xml:space="preserve">Кваша Агнета Ігорівна  </t>
   </si>
   <si>
-    <t xml:space="preserve">agnetakvasha@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kvasha014@idguonline.net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">073 Менеджмент</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10У</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Борщ Дар'я Русланівна</t>
+    <t>agnetakvasha@gmail.com</t>
+  </si>
+  <si>
+    <t>kvasha014@idguonline.net</t>
+  </si>
+  <si>
+    <t>073 Менеджмент</t>
+  </si>
+  <si>
+    <t>10У</t>
+  </si>
+  <si>
+    <t>Борщ Дар'я Русланівна</t>
   </si>
   <si>
     <t xml:space="preserve">db789234@gmail.com </t>
   </si>
   <si>
-    <t xml:space="preserve">borshch073@idguonline.net</t>
+    <t>borshch073@idguonline.net</t>
   </si>
   <si>
     <t xml:space="preserve">Владиченко Іван Сергійович </t>
   </si>
   <si>
-    <t xml:space="preserve">ivanvladycenko@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vladychenko073@idguonline.net</t>
+    <t>ivanvladycenko@gmail.com</t>
+  </si>
+  <si>
+    <t>vladychenko073@idguonline.net</t>
   </si>
   <si>
     <t xml:space="preserve">Качанжі Дар'я Іванівна </t>
@@ -517,74 +522,53 @@
     <t xml:space="preserve">dashakachanjzi@gmail.com </t>
   </si>
   <si>
-    <t xml:space="preserve">kachanzhi073@idguonline.net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мартинюк Анастасія Олександрівна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80672435833a@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">martyniuk073@idguonline.net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Минковська Анастасія Дмитрівна</t>
+    <t>kachanzhi073@idguonline.net</t>
+  </si>
+  <si>
+    <t>Мартинюк Анастасія Олександрівна</t>
+  </si>
+  <si>
+    <t>80672435833a@gmail.com</t>
+  </si>
+  <si>
+    <t>martyniuk073@idguonline.net</t>
+  </si>
+  <si>
+    <t>Минковська Анастасія Дмитрівна</t>
   </si>
   <si>
     <t xml:space="preserve"> nastyamink14@gmail.com </t>
   </si>
   <si>
-    <t xml:space="preserve">mynkovska073@idguonline.net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шпаченко Людмила Миколаївна</t>
+    <t>mynkovska073@idguonline.net</t>
+  </si>
+  <si>
+    <t>Шпаченко Людмила Миколаївна</t>
   </si>
   <si>
     <t xml:space="preserve">linasajd@gmail.com </t>
   </si>
   <si>
-    <t xml:space="preserve">shpachenko073@idguonline.net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22УЗ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шишов Ивдзигин Миколайович</t>
+    <t>shpachenko073@idguonline.net</t>
+  </si>
+  <si>
+    <t>22УЗ</t>
+  </si>
+  <si>
+    <t>Шишов Івдизгєня Миколайович</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
@@ -594,7 +578,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -609,7 +593,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
@@ -626,96 +610,62 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -774,35 +724,343 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+  <a:themeElements>
+    <a:clrScheme name="Стандартная">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Стандартная">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Стандартная">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMH58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E56" activeCellId="0" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="48.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="39.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="21.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="40.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="8" style="3" width="9.14"/>
+    <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="48.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="39.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="40.7109375" style="1" customWidth="1"/>
+    <col min="8" max="1022" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -825,8 +1083,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="n">
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -841,15 +1099,15 @@
       <c r="E2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5" t="n">
+      <c r="F2" s="5">
         <v>80678045349</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="n">
+    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -864,15 +1122,15 @@
       <c r="E3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="5">
         <v>80982958984</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
+    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -887,15 +1145,15 @@
       <c r="E4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="5" t="n">
+      <c r="F4" s="5">
         <v>80985406636</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="n">
+    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -910,15 +1168,15 @@
       <c r="E5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="5" t="n">
+      <c r="F5" s="5">
         <v>80680747945</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="n">
+    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -933,15 +1191,15 @@
       <c r="E6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="5">
         <v>80634504817</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="n">
+    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -956,15 +1214,15 @@
       <c r="E7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="5" t="n">
+      <c r="F7" s="5">
         <v>80679169342</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="n">
+    <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -979,15 +1237,15 @@
       <c r="E8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="5" t="n">
+      <c r="F8" s="5">
         <v>8063632488</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="n">
+    <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -1002,15 +1260,15 @@
       <c r="E9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="5" t="n">
+      <c r="F9" s="5">
         <v>80995575280</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="n">
+    <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -1025,15 +1283,15 @@
       <c r="E10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="5" t="n">
+      <c r="F10" s="5">
         <v>80679893379</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="n">
+    <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -1048,15 +1306,15 @@
       <c r="E11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="5" t="n">
+      <c r="F11" s="5">
         <v>80685787393</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="n">
+    <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -1071,15 +1329,15 @@
       <c r="E12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="5" t="n">
+      <c r="F12" s="5">
         <v>80977817549</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="n">
+    <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -1094,15 +1352,15 @@
       <c r="E13" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="5" t="n">
+      <c r="F13" s="5">
         <v>80631092439</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="n">
+    <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -1117,15 +1375,15 @@
       <c r="E14" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="5" t="n">
+      <c r="F14" s="5">
         <v>80978858744</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="n">
+    <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -1140,15 +1398,15 @@
       <c r="E15" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="5" t="n">
+      <c r="F15" s="5">
         <v>80962160965</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="n">
+    <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -1163,15 +1421,15 @@
       <c r="E16" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="5" t="n">
+      <c r="F16" s="5">
         <v>80930805445</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="n">
+    <row r="17" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -1186,15 +1444,15 @@
       <c r="E17" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="5" t="n">
+      <c r="F17" s="5">
         <v>80681241717</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="n">
+    <row r="18" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -1209,15 +1467,15 @@
       <c r="E18" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="5" t="n">
+      <c r="F18" s="5">
         <v>80983647527</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="n">
+    <row r="19" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -1232,15 +1490,15 @@
       <c r="E19" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F19" s="5" t="n">
+      <c r="F19" s="5">
         <v>80635397880</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="n">
+    <row r="20" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -1255,15 +1513,15 @@
       <c r="E20" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F20" s="5" t="n">
+      <c r="F20" s="5">
         <v>80677447235</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="n">
+    <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -1278,15 +1536,15 @@
       <c r="E21" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F21" s="5" t="n">
+      <c r="F21" s="5">
         <v>80679807112</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="n">
+    <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -1301,15 +1559,15 @@
       <c r="E22" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F22" s="5" t="n">
+      <c r="F22" s="5">
         <v>80975628192</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="n">
+    <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -1324,15 +1582,15 @@
       <c r="E23" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F23" s="5" t="n">
+      <c r="F23" s="5">
         <v>80983738270</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="n">
+    <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -1347,15 +1605,15 @@
       <c r="E24" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F24" s="5" t="n">
+      <c r="F24" s="5">
         <v>80681707727</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="n">
+    <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -1370,15 +1628,15 @@
       <c r="E25" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F25" s="5" t="n">
+      <c r="F25" s="5">
         <v>80680262180</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="n">
+    <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -1393,15 +1651,15 @@
       <c r="E26" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F26" s="5" t="n">
+      <c r="F26" s="5">
         <v>80668150384</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="n">
+    <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -1416,15 +1674,15 @@
       <c r="E27" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F27" s="5" t="n">
+      <c r="F27" s="5">
         <v>80986471683</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="n">
+    <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -1439,15 +1697,15 @@
       <c r="E28" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F28" s="5" t="n">
+      <c r="F28" s="5">
         <v>80963074582</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="n">
+    <row r="29" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -1462,15 +1720,15 @@
       <c r="E29" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F29" s="5" t="n">
+      <c r="F29" s="5">
         <v>80984791132</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="n">
+    <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -1485,15 +1743,15 @@
       <c r="E30" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F30" s="5" t="n">
+      <c r="F30" s="5">
         <v>80975563502</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="n">
+    <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -1508,15 +1766,15 @@
       <c r="E31" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F31" s="5" t="n">
+      <c r="F31" s="5">
         <v>80668915844</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5" t="n">
+    <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
@@ -1531,15 +1789,15 @@
       <c r="E32" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="F32" s="5" t="n">
+      <c r="F32" s="5">
         <v>80667290708</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5" t="n">
+    <row r="33" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -1554,15 +1812,15 @@
       <c r="E33" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="F33" s="5" t="n">
+      <c r="F33" s="5">
         <v>80991183612</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5" t="n">
+    <row r="34" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
@@ -1577,15 +1835,15 @@
       <c r="E34" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F34" s="5" t="n">
+      <c r="F34" s="5">
         <v>80977438090</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5" t="n">
+    <row r="35" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
@@ -1600,15 +1858,15 @@
       <c r="E35" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F35" s="5" t="n">
+      <c r="F35" s="5">
         <v>80508100181</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5" t="n">
+    <row r="36" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -1623,15 +1881,15 @@
       <c r="E36" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="F36" s="5" t="n">
+      <c r="F36" s="5">
         <v>80930441825</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5" t="n">
+    <row r="37" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
@@ -1646,15 +1904,15 @@
       <c r="E37" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="F37" s="5" t="n">
+      <c r="F37" s="5">
         <v>80637493317</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5" t="n">
+    <row r="38" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
@@ -1669,15 +1927,15 @@
       <c r="E38" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="F38" s="5" t="n">
+      <c r="F38" s="5">
         <v>80635723017</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="5" t="n">
+    <row r="39" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="5">
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
@@ -1692,15 +1950,15 @@
       <c r="E39" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F39" s="5" t="n">
+      <c r="F39" s="5">
         <v>80505170691</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5" t="n">
+    <row r="40" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="5">
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
@@ -1715,15 +1973,15 @@
       <c r="E40" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="F40" s="5" t="n">
+      <c r="F40" s="5">
         <v>80502400968</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="5" t="n">
+    <row r="41" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
@@ -1738,15 +1996,15 @@
       <c r="E41" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F41" s="5" t="n">
+      <c r="F41" s="5">
         <v>80509924782</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="5" t="n">
+    <row r="42" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -1761,15 +2019,15 @@
       <c r="E42" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="F42" s="5" t="n">
+      <c r="F42" s="5">
         <v>80935352452</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="5" t="n">
+    <row r="43" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="5">
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
@@ -1784,15 +2042,15 @@
       <c r="E43" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="F43" s="5" t="n">
+      <c r="F43" s="5">
         <v>80963591507</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="5" t="n">
+    <row r="44" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
@@ -1807,15 +2065,15 @@
       <c r="E44" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F44" s="5" t="n">
+      <c r="F44" s="5">
         <v>80949566440</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="5" t="n">
+    <row r="45" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A45" s="5">
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
@@ -1830,15 +2088,15 @@
       <c r="E45" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="F45" s="5" t="n">
+      <c r="F45" s="5">
         <v>80985448910</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="5" t="n">
+    <row r="46" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A46" s="5">
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -1853,15 +2111,15 @@
       <c r="E46" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F46" s="5" t="n">
+      <c r="F46" s="5">
         <v>80683556301</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="5" t="n">
+    <row r="47" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="5">
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -1876,15 +2134,15 @@
       <c r="E47" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="F47" s="5" t="n">
+      <c r="F47" s="5">
         <v>80683249486</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="5" t="n">
+    <row r="48" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A48" s="5">
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -1899,15 +2157,15 @@
       <c r="E48" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="F48" s="5" t="n">
+      <c r="F48" s="5">
         <v>80982674921</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="5" t="n">
+    <row r="49" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A49" s="5">
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -1922,15 +2180,15 @@
       <c r="E49" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="F49" s="5" t="n">
+      <c r="F49" s="5">
         <v>80964259853</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="5" t="n">
+    <row r="50" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
@@ -1945,15 +2203,15 @@
       <c r="E50" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F50" s="5" t="n">
+      <c r="F50" s="5">
         <v>80976798142</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="5" t="n">
+    <row r="51" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -1968,15 +2226,15 @@
       <c r="E51" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="F51" s="5" t="n">
+      <c r="F51" s="5">
         <v>80981231724</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="5" t="n">
+    <row r="52" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
@@ -1991,14 +2249,14 @@
       <c r="E52" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="F52" s="5" t="n">
+      <c r="F52" s="5">
         <v>80635547877</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B53" s="6" t="s">
         <v>15</v>
       </c>
@@ -2009,22 +2267,17 @@
         <v>176</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D54" s="7"/>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D56" s="8"/>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D58" s="8"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/fuaid.xlsx
+++ b/fuaid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\program\PyParser\parser_xlsx\parser_xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4745C58D-495F-4815-854C-4797564276AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DF7E6D-0651-4E05-A07F-DFB66C8EAF6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="175">
   <si>
     <t>№</t>
   </si>
@@ -550,12 +550,6 @@
   </si>
   <si>
     <t>shpachenko073@idguonline.net</t>
-  </si>
-  <si>
-    <t>22УЗ</t>
-  </si>
-  <si>
-    <t>Шишов Івдизгєня Миколайович</t>
   </si>
 </sst>
 </file>
@@ -637,7 +631,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -659,6 +653,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1044,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMH58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2164,7 +2170,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1022" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -2187,7 +2193,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1022" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -2210,7 +2216,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1022" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -2233,7 +2239,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1022" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -2256,24 +2262,1040 @@
         <v>174</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B53" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="7"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1022" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A53" s="9"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="13"/>
+      <c r="N53" s="13"/>
+      <c r="O53" s="13"/>
+      <c r="P53" s="13"/>
+      <c r="Q53" s="13"/>
+      <c r="R53" s="13"/>
+      <c r="S53" s="13"/>
+      <c r="T53" s="13"/>
+      <c r="U53" s="13"/>
+      <c r="V53" s="13"/>
+      <c r="W53" s="13"/>
+      <c r="X53" s="13"/>
+      <c r="Y53" s="13"/>
+      <c r="Z53" s="13"/>
+      <c r="AA53" s="13"/>
+      <c r="AB53" s="13"/>
+      <c r="AC53" s="13"/>
+      <c r="AD53" s="13"/>
+      <c r="AE53" s="13"/>
+      <c r="AF53" s="13"/>
+      <c r="AG53" s="13"/>
+      <c r="AH53" s="13"/>
+      <c r="AI53" s="13"/>
+      <c r="AJ53" s="13"/>
+      <c r="AK53" s="13"/>
+      <c r="AL53" s="13"/>
+      <c r="AM53" s="13"/>
+      <c r="AN53" s="13"/>
+      <c r="AO53" s="13"/>
+      <c r="AP53" s="13"/>
+      <c r="AQ53" s="13"/>
+      <c r="AR53" s="13"/>
+      <c r="AS53" s="13"/>
+      <c r="AT53" s="13"/>
+      <c r="AU53" s="13"/>
+      <c r="AV53" s="13"/>
+      <c r="AW53" s="13"/>
+      <c r="AX53" s="13"/>
+      <c r="AY53" s="13"/>
+      <c r="AZ53" s="13"/>
+      <c r="BA53" s="13"/>
+      <c r="BB53" s="13"/>
+      <c r="BC53" s="13"/>
+      <c r="BD53" s="13"/>
+      <c r="BE53" s="13"/>
+      <c r="BF53" s="13"/>
+      <c r="BG53" s="13"/>
+      <c r="BH53" s="13"/>
+      <c r="BI53" s="13"/>
+      <c r="BJ53" s="13"/>
+      <c r="BK53" s="13"/>
+      <c r="BL53" s="13"/>
+      <c r="BM53" s="13"/>
+      <c r="BN53" s="13"/>
+      <c r="BO53" s="13"/>
+      <c r="BP53" s="13"/>
+      <c r="BQ53" s="13"/>
+      <c r="BR53" s="13"/>
+      <c r="BS53" s="13"/>
+      <c r="BT53" s="13"/>
+      <c r="BU53" s="13"/>
+      <c r="BV53" s="13"/>
+      <c r="BW53" s="13"/>
+      <c r="BX53" s="13"/>
+      <c r="BY53" s="13"/>
+      <c r="BZ53" s="13"/>
+      <c r="CA53" s="13"/>
+      <c r="CB53" s="13"/>
+      <c r="CC53" s="13"/>
+      <c r="CD53" s="13"/>
+      <c r="CE53" s="13"/>
+      <c r="CF53" s="13"/>
+      <c r="CG53" s="13"/>
+      <c r="CH53" s="13"/>
+      <c r="CI53" s="13"/>
+      <c r="CJ53" s="13"/>
+      <c r="CK53" s="13"/>
+      <c r="CL53" s="13"/>
+      <c r="CM53" s="13"/>
+      <c r="CN53" s="13"/>
+      <c r="CO53" s="13"/>
+      <c r="CP53" s="13"/>
+      <c r="CQ53" s="13"/>
+      <c r="CR53" s="13"/>
+      <c r="CS53" s="13"/>
+      <c r="CT53" s="13"/>
+      <c r="CU53" s="13"/>
+      <c r="CV53" s="13"/>
+      <c r="CW53" s="13"/>
+      <c r="CX53" s="13"/>
+      <c r="CY53" s="13"/>
+      <c r="CZ53" s="13"/>
+      <c r="DA53" s="13"/>
+      <c r="DB53" s="13"/>
+      <c r="DC53" s="13"/>
+      <c r="DD53" s="13"/>
+      <c r="DE53" s="13"/>
+      <c r="DF53" s="13"/>
+      <c r="DG53" s="13"/>
+      <c r="DH53" s="13"/>
+      <c r="DI53" s="13"/>
+      <c r="DJ53" s="13"/>
+      <c r="DK53" s="13"/>
+      <c r="DL53" s="13"/>
+      <c r="DM53" s="13"/>
+      <c r="DN53" s="13"/>
+      <c r="DO53" s="13"/>
+      <c r="DP53" s="13"/>
+      <c r="DQ53" s="13"/>
+      <c r="DR53" s="13"/>
+      <c r="DS53" s="13"/>
+      <c r="DT53" s="13"/>
+      <c r="DU53" s="13"/>
+      <c r="DV53" s="13"/>
+      <c r="DW53" s="13"/>
+      <c r="DX53" s="13"/>
+      <c r="DY53" s="13"/>
+      <c r="DZ53" s="13"/>
+      <c r="EA53" s="13"/>
+      <c r="EB53" s="13"/>
+      <c r="EC53" s="13"/>
+      <c r="ED53" s="13"/>
+      <c r="EE53" s="13"/>
+      <c r="EF53" s="13"/>
+      <c r="EG53" s="13"/>
+      <c r="EH53" s="13"/>
+      <c r="EI53" s="13"/>
+      <c r="EJ53" s="13"/>
+      <c r="EK53" s="13"/>
+      <c r="EL53" s="13"/>
+      <c r="EM53" s="13"/>
+      <c r="EN53" s="13"/>
+      <c r="EO53" s="13"/>
+      <c r="EP53" s="13"/>
+      <c r="EQ53" s="13"/>
+      <c r="ER53" s="13"/>
+      <c r="ES53" s="13"/>
+      <c r="ET53" s="13"/>
+      <c r="EU53" s="13"/>
+      <c r="EV53" s="13"/>
+      <c r="EW53" s="13"/>
+      <c r="EX53" s="13"/>
+      <c r="EY53" s="13"/>
+      <c r="EZ53" s="13"/>
+      <c r="FA53" s="13"/>
+      <c r="FB53" s="13"/>
+      <c r="FC53" s="13"/>
+      <c r="FD53" s="13"/>
+      <c r="FE53" s="13"/>
+      <c r="FF53" s="13"/>
+      <c r="FG53" s="13"/>
+      <c r="FH53" s="13"/>
+      <c r="FI53" s="13"/>
+      <c r="FJ53" s="13"/>
+      <c r="FK53" s="13"/>
+      <c r="FL53" s="13"/>
+      <c r="FM53" s="13"/>
+      <c r="FN53" s="13"/>
+      <c r="FO53" s="13"/>
+      <c r="FP53" s="13"/>
+      <c r="FQ53" s="13"/>
+      <c r="FR53" s="13"/>
+      <c r="FS53" s="13"/>
+      <c r="FT53" s="13"/>
+      <c r="FU53" s="13"/>
+      <c r="FV53" s="13"/>
+      <c r="FW53" s="13"/>
+      <c r="FX53" s="13"/>
+      <c r="FY53" s="13"/>
+      <c r="FZ53" s="13"/>
+      <c r="GA53" s="13"/>
+      <c r="GB53" s="13"/>
+      <c r="GC53" s="13"/>
+      <c r="GD53" s="13"/>
+      <c r="GE53" s="13"/>
+      <c r="GF53" s="13"/>
+      <c r="GG53" s="13"/>
+      <c r="GH53" s="13"/>
+      <c r="GI53" s="13"/>
+      <c r="GJ53" s="13"/>
+      <c r="GK53" s="13"/>
+      <c r="GL53" s="13"/>
+      <c r="GM53" s="13"/>
+      <c r="GN53" s="13"/>
+      <c r="GO53" s="13"/>
+      <c r="GP53" s="13"/>
+      <c r="GQ53" s="13"/>
+      <c r="GR53" s="13"/>
+      <c r="GS53" s="13"/>
+      <c r="GT53" s="13"/>
+      <c r="GU53" s="13"/>
+      <c r="GV53" s="13"/>
+      <c r="GW53" s="13"/>
+      <c r="GX53" s="13"/>
+      <c r="GY53" s="13"/>
+      <c r="GZ53" s="13"/>
+      <c r="HA53" s="13"/>
+      <c r="HB53" s="13"/>
+      <c r="HC53" s="13"/>
+      <c r="HD53" s="13"/>
+      <c r="HE53" s="13"/>
+      <c r="HF53" s="13"/>
+      <c r="HG53" s="13"/>
+      <c r="HH53" s="13"/>
+      <c r="HI53" s="13"/>
+      <c r="HJ53" s="13"/>
+      <c r="HK53" s="13"/>
+      <c r="HL53" s="13"/>
+      <c r="HM53" s="13"/>
+      <c r="HN53" s="13"/>
+      <c r="HO53" s="13"/>
+      <c r="HP53" s="13"/>
+      <c r="HQ53" s="13"/>
+      <c r="HR53" s="13"/>
+      <c r="HS53" s="13"/>
+      <c r="HT53" s="13"/>
+      <c r="HU53" s="13"/>
+      <c r="HV53" s="13"/>
+      <c r="HW53" s="13"/>
+      <c r="HX53" s="13"/>
+      <c r="HY53" s="13"/>
+      <c r="HZ53" s="13"/>
+      <c r="IA53" s="13"/>
+      <c r="IB53" s="13"/>
+      <c r="IC53" s="13"/>
+      <c r="ID53" s="13"/>
+      <c r="IE53" s="13"/>
+      <c r="IF53" s="13"/>
+      <c r="IG53" s="13"/>
+      <c r="IH53" s="13"/>
+      <c r="II53" s="13"/>
+      <c r="IJ53" s="13"/>
+      <c r="IK53" s="13"/>
+      <c r="IL53" s="13"/>
+      <c r="IM53" s="13"/>
+      <c r="IN53" s="13"/>
+      <c r="IO53" s="13"/>
+      <c r="IP53" s="13"/>
+      <c r="IQ53" s="13"/>
+      <c r="IR53" s="13"/>
+      <c r="IS53" s="13"/>
+      <c r="IT53" s="13"/>
+      <c r="IU53" s="13"/>
+      <c r="IV53" s="13"/>
+      <c r="IW53" s="13"/>
+      <c r="IX53" s="13"/>
+      <c r="IY53" s="13"/>
+      <c r="IZ53" s="13"/>
+      <c r="JA53" s="13"/>
+      <c r="JB53" s="13"/>
+      <c r="JC53" s="13"/>
+      <c r="JD53" s="13"/>
+      <c r="JE53" s="13"/>
+      <c r="JF53" s="13"/>
+      <c r="JG53" s="13"/>
+      <c r="JH53" s="13"/>
+      <c r="JI53" s="13"/>
+      <c r="JJ53" s="13"/>
+      <c r="JK53" s="13"/>
+      <c r="JL53" s="13"/>
+      <c r="JM53" s="13"/>
+      <c r="JN53" s="13"/>
+      <c r="JO53" s="13"/>
+      <c r="JP53" s="13"/>
+      <c r="JQ53" s="13"/>
+      <c r="JR53" s="13"/>
+      <c r="JS53" s="13"/>
+      <c r="JT53" s="13"/>
+      <c r="JU53" s="13"/>
+      <c r="JV53" s="13"/>
+      <c r="JW53" s="13"/>
+      <c r="JX53" s="13"/>
+      <c r="JY53" s="13"/>
+      <c r="JZ53" s="13"/>
+      <c r="KA53" s="13"/>
+      <c r="KB53" s="13"/>
+      <c r="KC53" s="13"/>
+      <c r="KD53" s="13"/>
+      <c r="KE53" s="13"/>
+      <c r="KF53" s="13"/>
+      <c r="KG53" s="13"/>
+      <c r="KH53" s="13"/>
+      <c r="KI53" s="13"/>
+      <c r="KJ53" s="13"/>
+      <c r="KK53" s="13"/>
+      <c r="KL53" s="13"/>
+      <c r="KM53" s="13"/>
+      <c r="KN53" s="13"/>
+      <c r="KO53" s="13"/>
+      <c r="KP53" s="13"/>
+      <c r="KQ53" s="13"/>
+      <c r="KR53" s="13"/>
+      <c r="KS53" s="13"/>
+      <c r="KT53" s="13"/>
+      <c r="KU53" s="13"/>
+      <c r="KV53" s="13"/>
+      <c r="KW53" s="13"/>
+      <c r="KX53" s="13"/>
+      <c r="KY53" s="13"/>
+      <c r="KZ53" s="13"/>
+      <c r="LA53" s="13"/>
+      <c r="LB53" s="13"/>
+      <c r="LC53" s="13"/>
+      <c r="LD53" s="13"/>
+      <c r="LE53" s="13"/>
+      <c r="LF53" s="13"/>
+      <c r="LG53" s="13"/>
+      <c r="LH53" s="13"/>
+      <c r="LI53" s="13"/>
+      <c r="LJ53" s="13"/>
+      <c r="LK53" s="13"/>
+      <c r="LL53" s="13"/>
+      <c r="LM53" s="13"/>
+      <c r="LN53" s="13"/>
+      <c r="LO53" s="13"/>
+      <c r="LP53" s="13"/>
+      <c r="LQ53" s="13"/>
+      <c r="LR53" s="13"/>
+      <c r="LS53" s="13"/>
+      <c r="LT53" s="13"/>
+      <c r="LU53" s="13"/>
+      <c r="LV53" s="13"/>
+      <c r="LW53" s="13"/>
+      <c r="LX53" s="13"/>
+      <c r="LY53" s="13"/>
+      <c r="LZ53" s="13"/>
+      <c r="MA53" s="13"/>
+      <c r="MB53" s="13"/>
+      <c r="MC53" s="13"/>
+      <c r="MD53" s="13"/>
+      <c r="ME53" s="13"/>
+      <c r="MF53" s="13"/>
+      <c r="MG53" s="13"/>
+      <c r="MH53" s="13"/>
+      <c r="MI53" s="13"/>
+      <c r="MJ53" s="13"/>
+      <c r="MK53" s="13"/>
+      <c r="ML53" s="13"/>
+      <c r="MM53" s="13"/>
+      <c r="MN53" s="13"/>
+      <c r="MO53" s="13"/>
+      <c r="MP53" s="13"/>
+      <c r="MQ53" s="13"/>
+      <c r="MR53" s="13"/>
+      <c r="MS53" s="13"/>
+      <c r="MT53" s="13"/>
+      <c r="MU53" s="13"/>
+      <c r="MV53" s="13"/>
+      <c r="MW53" s="13"/>
+      <c r="MX53" s="13"/>
+      <c r="MY53" s="13"/>
+      <c r="MZ53" s="13"/>
+      <c r="NA53" s="13"/>
+      <c r="NB53" s="13"/>
+      <c r="NC53" s="13"/>
+      <c r="ND53" s="13"/>
+      <c r="NE53" s="13"/>
+      <c r="NF53" s="13"/>
+      <c r="NG53" s="13"/>
+      <c r="NH53" s="13"/>
+      <c r="NI53" s="13"/>
+      <c r="NJ53" s="13"/>
+      <c r="NK53" s="13"/>
+      <c r="NL53" s="13"/>
+      <c r="NM53" s="13"/>
+      <c r="NN53" s="13"/>
+      <c r="NO53" s="13"/>
+      <c r="NP53" s="13"/>
+      <c r="NQ53" s="13"/>
+      <c r="NR53" s="13"/>
+      <c r="NS53" s="13"/>
+      <c r="NT53" s="13"/>
+      <c r="NU53" s="13"/>
+      <c r="NV53" s="13"/>
+      <c r="NW53" s="13"/>
+      <c r="NX53" s="13"/>
+      <c r="NY53" s="13"/>
+      <c r="NZ53" s="13"/>
+      <c r="OA53" s="13"/>
+      <c r="OB53" s="13"/>
+      <c r="OC53" s="13"/>
+      <c r="OD53" s="13"/>
+      <c r="OE53" s="13"/>
+      <c r="OF53" s="13"/>
+      <c r="OG53" s="13"/>
+      <c r="OH53" s="13"/>
+      <c r="OI53" s="13"/>
+      <c r="OJ53" s="13"/>
+      <c r="OK53" s="13"/>
+      <c r="OL53" s="13"/>
+      <c r="OM53" s="13"/>
+      <c r="ON53" s="13"/>
+      <c r="OO53" s="13"/>
+      <c r="OP53" s="13"/>
+      <c r="OQ53" s="13"/>
+      <c r="OR53" s="13"/>
+      <c r="OS53" s="13"/>
+      <c r="OT53" s="13"/>
+      <c r="OU53" s="13"/>
+      <c r="OV53" s="13"/>
+      <c r="OW53" s="13"/>
+      <c r="OX53" s="13"/>
+      <c r="OY53" s="13"/>
+      <c r="OZ53" s="13"/>
+      <c r="PA53" s="13"/>
+      <c r="PB53" s="13"/>
+      <c r="PC53" s="13"/>
+      <c r="PD53" s="13"/>
+      <c r="PE53" s="13"/>
+      <c r="PF53" s="13"/>
+      <c r="PG53" s="13"/>
+      <c r="PH53" s="13"/>
+      <c r="PI53" s="13"/>
+      <c r="PJ53" s="13"/>
+      <c r="PK53" s="13"/>
+      <c r="PL53" s="13"/>
+      <c r="PM53" s="13"/>
+      <c r="PN53" s="13"/>
+      <c r="PO53" s="13"/>
+      <c r="PP53" s="13"/>
+      <c r="PQ53" s="13"/>
+      <c r="PR53" s="13"/>
+      <c r="PS53" s="13"/>
+      <c r="PT53" s="13"/>
+      <c r="PU53" s="13"/>
+      <c r="PV53" s="13"/>
+      <c r="PW53" s="13"/>
+      <c r="PX53" s="13"/>
+      <c r="PY53" s="13"/>
+      <c r="PZ53" s="13"/>
+      <c r="QA53" s="13"/>
+      <c r="QB53" s="13"/>
+      <c r="QC53" s="13"/>
+      <c r="QD53" s="13"/>
+      <c r="QE53" s="13"/>
+      <c r="QF53" s="13"/>
+      <c r="QG53" s="13"/>
+      <c r="QH53" s="13"/>
+      <c r="QI53" s="13"/>
+      <c r="QJ53" s="13"/>
+      <c r="QK53" s="13"/>
+      <c r="QL53" s="13"/>
+      <c r="QM53" s="13"/>
+      <c r="QN53" s="13"/>
+      <c r="QO53" s="13"/>
+      <c r="QP53" s="13"/>
+      <c r="QQ53" s="13"/>
+      <c r="QR53" s="13"/>
+      <c r="QS53" s="13"/>
+      <c r="QT53" s="13"/>
+      <c r="QU53" s="13"/>
+      <c r="QV53" s="13"/>
+      <c r="QW53" s="13"/>
+      <c r="QX53" s="13"/>
+      <c r="QY53" s="13"/>
+      <c r="QZ53" s="13"/>
+      <c r="RA53" s="13"/>
+      <c r="RB53" s="13"/>
+      <c r="RC53" s="13"/>
+      <c r="RD53" s="13"/>
+      <c r="RE53" s="13"/>
+      <c r="RF53" s="13"/>
+      <c r="RG53" s="13"/>
+      <c r="RH53" s="13"/>
+      <c r="RI53" s="13"/>
+      <c r="RJ53" s="13"/>
+      <c r="RK53" s="13"/>
+      <c r="RL53" s="13"/>
+      <c r="RM53" s="13"/>
+      <c r="RN53" s="13"/>
+      <c r="RO53" s="13"/>
+      <c r="RP53" s="13"/>
+      <c r="RQ53" s="13"/>
+      <c r="RR53" s="13"/>
+      <c r="RS53" s="13"/>
+      <c r="RT53" s="13"/>
+      <c r="RU53" s="13"/>
+      <c r="RV53" s="13"/>
+      <c r="RW53" s="13"/>
+      <c r="RX53" s="13"/>
+      <c r="RY53" s="13"/>
+      <c r="RZ53" s="13"/>
+      <c r="SA53" s="13"/>
+      <c r="SB53" s="13"/>
+      <c r="SC53" s="13"/>
+      <c r="SD53" s="13"/>
+      <c r="SE53" s="13"/>
+      <c r="SF53" s="13"/>
+      <c r="SG53" s="13"/>
+      <c r="SH53" s="13"/>
+      <c r="SI53" s="13"/>
+      <c r="SJ53" s="13"/>
+      <c r="SK53" s="13"/>
+      <c r="SL53" s="13"/>
+      <c r="SM53" s="13"/>
+      <c r="SN53" s="13"/>
+      <c r="SO53" s="13"/>
+      <c r="SP53" s="13"/>
+      <c r="SQ53" s="13"/>
+      <c r="SR53" s="13"/>
+      <c r="SS53" s="13"/>
+      <c r="ST53" s="13"/>
+      <c r="SU53" s="13"/>
+      <c r="SV53" s="13"/>
+      <c r="SW53" s="13"/>
+      <c r="SX53" s="13"/>
+      <c r="SY53" s="13"/>
+      <c r="SZ53" s="13"/>
+      <c r="TA53" s="13"/>
+      <c r="TB53" s="13"/>
+      <c r="TC53" s="13"/>
+      <c r="TD53" s="13"/>
+      <c r="TE53" s="13"/>
+      <c r="TF53" s="13"/>
+      <c r="TG53" s="13"/>
+      <c r="TH53" s="13"/>
+      <c r="TI53" s="13"/>
+      <c r="TJ53" s="13"/>
+      <c r="TK53" s="13"/>
+      <c r="TL53" s="13"/>
+      <c r="TM53" s="13"/>
+      <c r="TN53" s="13"/>
+      <c r="TO53" s="13"/>
+      <c r="TP53" s="13"/>
+      <c r="TQ53" s="13"/>
+      <c r="TR53" s="13"/>
+      <c r="TS53" s="13"/>
+      <c r="TT53" s="13"/>
+      <c r="TU53" s="13"/>
+      <c r="TV53" s="13"/>
+      <c r="TW53" s="13"/>
+      <c r="TX53" s="13"/>
+      <c r="TY53" s="13"/>
+      <c r="TZ53" s="13"/>
+      <c r="UA53" s="13"/>
+      <c r="UB53" s="13"/>
+      <c r="UC53" s="13"/>
+      <c r="UD53" s="13"/>
+      <c r="UE53" s="13"/>
+      <c r="UF53" s="13"/>
+      <c r="UG53" s="13"/>
+      <c r="UH53" s="13"/>
+      <c r="UI53" s="13"/>
+      <c r="UJ53" s="13"/>
+      <c r="UK53" s="13"/>
+      <c r="UL53" s="13"/>
+      <c r="UM53" s="13"/>
+      <c r="UN53" s="13"/>
+      <c r="UO53" s="13"/>
+      <c r="UP53" s="13"/>
+      <c r="UQ53" s="13"/>
+      <c r="UR53" s="13"/>
+      <c r="US53" s="13"/>
+      <c r="UT53" s="13"/>
+      <c r="UU53" s="13"/>
+      <c r="UV53" s="13"/>
+      <c r="UW53" s="13"/>
+      <c r="UX53" s="13"/>
+      <c r="UY53" s="13"/>
+      <c r="UZ53" s="13"/>
+      <c r="VA53" s="13"/>
+      <c r="VB53" s="13"/>
+      <c r="VC53" s="13"/>
+      <c r="VD53" s="13"/>
+      <c r="VE53" s="13"/>
+      <c r="VF53" s="13"/>
+      <c r="VG53" s="13"/>
+      <c r="VH53" s="13"/>
+      <c r="VI53" s="13"/>
+      <c r="VJ53" s="13"/>
+      <c r="VK53" s="13"/>
+      <c r="VL53" s="13"/>
+      <c r="VM53" s="13"/>
+      <c r="VN53" s="13"/>
+      <c r="VO53" s="13"/>
+      <c r="VP53" s="13"/>
+      <c r="VQ53" s="13"/>
+      <c r="VR53" s="13"/>
+      <c r="VS53" s="13"/>
+      <c r="VT53" s="13"/>
+      <c r="VU53" s="13"/>
+      <c r="VV53" s="13"/>
+      <c r="VW53" s="13"/>
+      <c r="VX53" s="13"/>
+      <c r="VY53" s="13"/>
+      <c r="VZ53" s="13"/>
+      <c r="WA53" s="13"/>
+      <c r="WB53" s="13"/>
+      <c r="WC53" s="13"/>
+      <c r="WD53" s="13"/>
+      <c r="WE53" s="13"/>
+      <c r="WF53" s="13"/>
+      <c r="WG53" s="13"/>
+      <c r="WH53" s="13"/>
+      <c r="WI53" s="13"/>
+      <c r="WJ53" s="13"/>
+      <c r="WK53" s="13"/>
+      <c r="WL53" s="13"/>
+      <c r="WM53" s="13"/>
+      <c r="WN53" s="13"/>
+      <c r="WO53" s="13"/>
+      <c r="WP53" s="13"/>
+      <c r="WQ53" s="13"/>
+      <c r="WR53" s="13"/>
+      <c r="WS53" s="13"/>
+      <c r="WT53" s="13"/>
+      <c r="WU53" s="13"/>
+      <c r="WV53" s="13"/>
+      <c r="WW53" s="13"/>
+      <c r="WX53" s="13"/>
+      <c r="WY53" s="13"/>
+      <c r="WZ53" s="13"/>
+      <c r="XA53" s="13"/>
+      <c r="XB53" s="13"/>
+      <c r="XC53" s="13"/>
+      <c r="XD53" s="13"/>
+      <c r="XE53" s="13"/>
+      <c r="XF53" s="13"/>
+      <c r="XG53" s="13"/>
+      <c r="XH53" s="13"/>
+      <c r="XI53" s="13"/>
+      <c r="XJ53" s="13"/>
+      <c r="XK53" s="13"/>
+      <c r="XL53" s="13"/>
+      <c r="XM53" s="13"/>
+      <c r="XN53" s="13"/>
+      <c r="XO53" s="13"/>
+      <c r="XP53" s="13"/>
+      <c r="XQ53" s="13"/>
+      <c r="XR53" s="13"/>
+      <c r="XS53" s="13"/>
+      <c r="XT53" s="13"/>
+      <c r="XU53" s="13"/>
+      <c r="XV53" s="13"/>
+      <c r="XW53" s="13"/>
+      <c r="XX53" s="13"/>
+      <c r="XY53" s="13"/>
+      <c r="XZ53" s="13"/>
+      <c r="YA53" s="13"/>
+      <c r="YB53" s="13"/>
+      <c r="YC53" s="13"/>
+      <c r="YD53" s="13"/>
+      <c r="YE53" s="13"/>
+      <c r="YF53" s="13"/>
+      <c r="YG53" s="13"/>
+      <c r="YH53" s="13"/>
+      <c r="YI53" s="13"/>
+      <c r="YJ53" s="13"/>
+      <c r="YK53" s="13"/>
+      <c r="YL53" s="13"/>
+      <c r="YM53" s="13"/>
+      <c r="YN53" s="13"/>
+      <c r="YO53" s="13"/>
+      <c r="YP53" s="13"/>
+      <c r="YQ53" s="13"/>
+      <c r="YR53" s="13"/>
+      <c r="YS53" s="13"/>
+      <c r="YT53" s="13"/>
+      <c r="YU53" s="13"/>
+      <c r="YV53" s="13"/>
+      <c r="YW53" s="13"/>
+      <c r="YX53" s="13"/>
+      <c r="YY53" s="13"/>
+      <c r="YZ53" s="13"/>
+      <c r="ZA53" s="13"/>
+      <c r="ZB53" s="13"/>
+      <c r="ZC53" s="13"/>
+      <c r="ZD53" s="13"/>
+      <c r="ZE53" s="13"/>
+      <c r="ZF53" s="13"/>
+      <c r="ZG53" s="13"/>
+      <c r="ZH53" s="13"/>
+      <c r="ZI53" s="13"/>
+      <c r="ZJ53" s="13"/>
+      <c r="ZK53" s="13"/>
+      <c r="ZL53" s="13"/>
+      <c r="ZM53" s="13"/>
+      <c r="ZN53" s="13"/>
+      <c r="ZO53" s="13"/>
+      <c r="ZP53" s="13"/>
+      <c r="ZQ53" s="13"/>
+      <c r="ZR53" s="13"/>
+      <c r="ZS53" s="13"/>
+      <c r="ZT53" s="13"/>
+      <c r="ZU53" s="13"/>
+      <c r="ZV53" s="13"/>
+      <c r="ZW53" s="13"/>
+      <c r="ZX53" s="13"/>
+      <c r="ZY53" s="13"/>
+      <c r="ZZ53" s="13"/>
+      <c r="AAA53" s="13"/>
+      <c r="AAB53" s="13"/>
+      <c r="AAC53" s="13"/>
+      <c r="AAD53" s="13"/>
+      <c r="AAE53" s="13"/>
+      <c r="AAF53" s="13"/>
+      <c r="AAG53" s="13"/>
+      <c r="AAH53" s="13"/>
+      <c r="AAI53" s="13"/>
+      <c r="AAJ53" s="13"/>
+      <c r="AAK53" s="13"/>
+      <c r="AAL53" s="13"/>
+      <c r="AAM53" s="13"/>
+      <c r="AAN53" s="13"/>
+      <c r="AAO53" s="13"/>
+      <c r="AAP53" s="13"/>
+      <c r="AAQ53" s="13"/>
+      <c r="AAR53" s="13"/>
+      <c r="AAS53" s="13"/>
+      <c r="AAT53" s="13"/>
+      <c r="AAU53" s="13"/>
+      <c r="AAV53" s="13"/>
+      <c r="AAW53" s="13"/>
+      <c r="AAX53" s="13"/>
+      <c r="AAY53" s="13"/>
+      <c r="AAZ53" s="13"/>
+      <c r="ABA53" s="13"/>
+      <c r="ABB53" s="13"/>
+      <c r="ABC53" s="13"/>
+      <c r="ABD53" s="13"/>
+      <c r="ABE53" s="13"/>
+      <c r="ABF53" s="13"/>
+      <c r="ABG53" s="13"/>
+      <c r="ABH53" s="13"/>
+      <c r="ABI53" s="13"/>
+      <c r="ABJ53" s="13"/>
+      <c r="ABK53" s="13"/>
+      <c r="ABL53" s="13"/>
+      <c r="ABM53" s="13"/>
+      <c r="ABN53" s="13"/>
+      <c r="ABO53" s="13"/>
+      <c r="ABP53" s="13"/>
+      <c r="ABQ53" s="13"/>
+      <c r="ABR53" s="13"/>
+      <c r="ABS53" s="13"/>
+      <c r="ABT53" s="13"/>
+      <c r="ABU53" s="13"/>
+      <c r="ABV53" s="13"/>
+      <c r="ABW53" s="13"/>
+      <c r="ABX53" s="13"/>
+      <c r="ABY53" s="13"/>
+      <c r="ABZ53" s="13"/>
+      <c r="ACA53" s="13"/>
+      <c r="ACB53" s="13"/>
+      <c r="ACC53" s="13"/>
+      <c r="ACD53" s="13"/>
+      <c r="ACE53" s="13"/>
+      <c r="ACF53" s="13"/>
+      <c r="ACG53" s="13"/>
+      <c r="ACH53" s="13"/>
+      <c r="ACI53" s="13"/>
+      <c r="ACJ53" s="13"/>
+      <c r="ACK53" s="13"/>
+      <c r="ACL53" s="13"/>
+      <c r="ACM53" s="13"/>
+      <c r="ACN53" s="13"/>
+      <c r="ACO53" s="13"/>
+      <c r="ACP53" s="13"/>
+      <c r="ACQ53" s="13"/>
+      <c r="ACR53" s="13"/>
+      <c r="ACS53" s="13"/>
+      <c r="ACT53" s="13"/>
+      <c r="ACU53" s="13"/>
+      <c r="ACV53" s="13"/>
+      <c r="ACW53" s="13"/>
+      <c r="ACX53" s="13"/>
+      <c r="ACY53" s="13"/>
+      <c r="ACZ53" s="13"/>
+      <c r="ADA53" s="13"/>
+      <c r="ADB53" s="13"/>
+      <c r="ADC53" s="13"/>
+      <c r="ADD53" s="13"/>
+      <c r="ADE53" s="13"/>
+      <c r="ADF53" s="13"/>
+      <c r="ADG53" s="13"/>
+      <c r="ADH53" s="13"/>
+      <c r="ADI53" s="13"/>
+      <c r="ADJ53" s="13"/>
+      <c r="ADK53" s="13"/>
+      <c r="ADL53" s="13"/>
+      <c r="ADM53" s="13"/>
+      <c r="ADN53" s="13"/>
+      <c r="ADO53" s="13"/>
+      <c r="ADP53" s="13"/>
+      <c r="ADQ53" s="13"/>
+      <c r="ADR53" s="13"/>
+      <c r="ADS53" s="13"/>
+      <c r="ADT53" s="13"/>
+      <c r="ADU53" s="13"/>
+      <c r="ADV53" s="13"/>
+      <c r="ADW53" s="13"/>
+      <c r="ADX53" s="13"/>
+      <c r="ADY53" s="13"/>
+      <c r="ADZ53" s="13"/>
+      <c r="AEA53" s="13"/>
+      <c r="AEB53" s="13"/>
+      <c r="AEC53" s="13"/>
+      <c r="AED53" s="13"/>
+      <c r="AEE53" s="13"/>
+      <c r="AEF53" s="13"/>
+      <c r="AEG53" s="13"/>
+      <c r="AEH53" s="13"/>
+      <c r="AEI53" s="13"/>
+      <c r="AEJ53" s="13"/>
+      <c r="AEK53" s="13"/>
+      <c r="AEL53" s="13"/>
+      <c r="AEM53" s="13"/>
+      <c r="AEN53" s="13"/>
+      <c r="AEO53" s="13"/>
+      <c r="AEP53" s="13"/>
+      <c r="AEQ53" s="13"/>
+      <c r="AER53" s="13"/>
+      <c r="AES53" s="13"/>
+      <c r="AET53" s="13"/>
+      <c r="AEU53" s="13"/>
+      <c r="AEV53" s="13"/>
+      <c r="AEW53" s="13"/>
+      <c r="AEX53" s="13"/>
+      <c r="AEY53" s="13"/>
+      <c r="AEZ53" s="13"/>
+      <c r="AFA53" s="13"/>
+      <c r="AFB53" s="13"/>
+      <c r="AFC53" s="13"/>
+      <c r="AFD53" s="13"/>
+      <c r="AFE53" s="13"/>
+      <c r="AFF53" s="13"/>
+      <c r="AFG53" s="13"/>
+      <c r="AFH53" s="13"/>
+      <c r="AFI53" s="13"/>
+      <c r="AFJ53" s="13"/>
+      <c r="AFK53" s="13"/>
+      <c r="AFL53" s="13"/>
+      <c r="AFM53" s="13"/>
+      <c r="AFN53" s="13"/>
+      <c r="AFO53" s="13"/>
+      <c r="AFP53" s="13"/>
+      <c r="AFQ53" s="13"/>
+      <c r="AFR53" s="13"/>
+      <c r="AFS53" s="13"/>
+      <c r="AFT53" s="13"/>
+      <c r="AFU53" s="13"/>
+      <c r="AFV53" s="13"/>
+      <c r="AFW53" s="13"/>
+      <c r="AFX53" s="13"/>
+      <c r="AFY53" s="13"/>
+      <c r="AFZ53" s="13"/>
+      <c r="AGA53" s="13"/>
+      <c r="AGB53" s="13"/>
+      <c r="AGC53" s="13"/>
+      <c r="AGD53" s="13"/>
+      <c r="AGE53" s="13"/>
+      <c r="AGF53" s="13"/>
+      <c r="AGG53" s="13"/>
+      <c r="AGH53" s="13"/>
+      <c r="AGI53" s="13"/>
+      <c r="AGJ53" s="13"/>
+      <c r="AGK53" s="13"/>
+      <c r="AGL53" s="13"/>
+      <c r="AGM53" s="13"/>
+      <c r="AGN53" s="13"/>
+      <c r="AGO53" s="13"/>
+      <c r="AGP53" s="13"/>
+      <c r="AGQ53" s="13"/>
+      <c r="AGR53" s="13"/>
+      <c r="AGS53" s="13"/>
+      <c r="AGT53" s="13"/>
+      <c r="AGU53" s="13"/>
+      <c r="AGV53" s="13"/>
+      <c r="AGW53" s="13"/>
+      <c r="AGX53" s="13"/>
+      <c r="AGY53" s="13"/>
+      <c r="AGZ53" s="13"/>
+      <c r="AHA53" s="13"/>
+      <c r="AHB53" s="13"/>
+      <c r="AHC53" s="13"/>
+      <c r="AHD53" s="13"/>
+      <c r="AHE53" s="13"/>
+      <c r="AHF53" s="13"/>
+      <c r="AHG53" s="13"/>
+      <c r="AHH53" s="13"/>
+      <c r="AHI53" s="13"/>
+      <c r="AHJ53" s="13"/>
+      <c r="AHK53" s="13"/>
+      <c r="AHL53" s="13"/>
+      <c r="AHM53" s="13"/>
+      <c r="AHN53" s="13"/>
+      <c r="AHO53" s="13"/>
+      <c r="AHP53" s="13"/>
+      <c r="AHQ53" s="13"/>
+      <c r="AHR53" s="13"/>
+      <c r="AHS53" s="13"/>
+      <c r="AHT53" s="13"/>
+      <c r="AHU53" s="13"/>
+      <c r="AHV53" s="13"/>
+      <c r="AHW53" s="13"/>
+      <c r="AHX53" s="13"/>
+      <c r="AHY53" s="13"/>
+      <c r="AHZ53" s="13"/>
+      <c r="AIA53" s="13"/>
+      <c r="AIB53" s="13"/>
+      <c r="AIC53" s="13"/>
+      <c r="AID53" s="13"/>
+      <c r="AIE53" s="13"/>
+      <c r="AIF53" s="13"/>
+      <c r="AIG53" s="13"/>
+      <c r="AIH53" s="13"/>
+      <c r="AII53" s="13"/>
+      <c r="AIJ53" s="13"/>
+      <c r="AIK53" s="13"/>
+      <c r="AIL53" s="13"/>
+      <c r="AIM53" s="13"/>
+      <c r="AIN53" s="13"/>
+      <c r="AIO53" s="13"/>
+      <c r="AIP53" s="13"/>
+      <c r="AIQ53" s="13"/>
+      <c r="AIR53" s="13"/>
+      <c r="AIS53" s="13"/>
+      <c r="AIT53" s="13"/>
+      <c r="AIU53" s="13"/>
+      <c r="AIV53" s="13"/>
+      <c r="AIW53" s="13"/>
+      <c r="AIX53" s="13"/>
+      <c r="AIY53" s="13"/>
+      <c r="AIZ53" s="13"/>
+      <c r="AJA53" s="13"/>
+      <c r="AJB53" s="13"/>
+      <c r="AJC53" s="13"/>
+      <c r="AJD53" s="13"/>
+      <c r="AJE53" s="13"/>
+      <c r="AJF53" s="13"/>
+      <c r="AJG53" s="13"/>
+      <c r="AJH53" s="13"/>
+      <c r="AJI53" s="13"/>
+      <c r="AJJ53" s="13"/>
+      <c r="AJK53" s="13"/>
+      <c r="AJL53" s="13"/>
+      <c r="AJM53" s="13"/>
+      <c r="AJN53" s="13"/>
+      <c r="AJO53" s="13"/>
+      <c r="AJP53" s="13"/>
+      <c r="AJQ53" s="13"/>
+      <c r="AJR53" s="13"/>
+      <c r="AJS53" s="13"/>
+      <c r="AJT53" s="13"/>
+      <c r="AJU53" s="13"/>
+      <c r="AJV53" s="13"/>
+      <c r="AJW53" s="13"/>
+      <c r="AJX53" s="13"/>
+      <c r="AJY53" s="13"/>
+      <c r="AJZ53" s="13"/>
+      <c r="AKA53" s="13"/>
+      <c r="AKB53" s="13"/>
+      <c r="AKC53" s="13"/>
+      <c r="AKD53" s="13"/>
+      <c r="AKE53" s="13"/>
+      <c r="AKF53" s="13"/>
+      <c r="AKG53" s="13"/>
+      <c r="AKH53" s="13"/>
+      <c r="AKI53" s="13"/>
+      <c r="AKJ53" s="13"/>
+      <c r="AKK53" s="13"/>
+      <c r="AKL53" s="13"/>
+      <c r="AKM53" s="13"/>
+      <c r="AKN53" s="13"/>
+      <c r="AKO53" s="13"/>
+      <c r="AKP53" s="13"/>
+      <c r="AKQ53" s="13"/>
+      <c r="AKR53" s="13"/>
+      <c r="AKS53" s="13"/>
+      <c r="AKT53" s="13"/>
+      <c r="AKU53" s="13"/>
+      <c r="AKV53" s="13"/>
+      <c r="AKW53" s="13"/>
+      <c r="AKX53" s="13"/>
+      <c r="AKY53" s="13"/>
+      <c r="AKZ53" s="13"/>
+      <c r="ALA53" s="13"/>
+      <c r="ALB53" s="13"/>
+      <c r="ALC53" s="13"/>
+      <c r="ALD53" s="13"/>
+      <c r="ALE53" s="13"/>
+      <c r="ALF53" s="13"/>
+      <c r="ALG53" s="13"/>
+      <c r="ALH53" s="13"/>
+      <c r="ALI53" s="13"/>
+      <c r="ALJ53" s="13"/>
+      <c r="ALK53" s="13"/>
+      <c r="ALL53" s="13"/>
+      <c r="ALM53" s="13"/>
+      <c r="ALN53" s="13"/>
+      <c r="ALO53" s="13"/>
+      <c r="ALP53" s="13"/>
+      <c r="ALQ53" s="13"/>
+      <c r="ALR53" s="13"/>
+      <c r="ALS53" s="13"/>
+      <c r="ALT53" s="13"/>
+      <c r="ALU53" s="13"/>
+      <c r="ALV53" s="13"/>
+      <c r="ALW53" s="13"/>
+      <c r="ALX53" s="13"/>
+      <c r="ALY53" s="13"/>
+      <c r="ALZ53" s="13"/>
+      <c r="AMA53" s="13"/>
+      <c r="AMB53" s="13"/>
+      <c r="AMC53" s="13"/>
+      <c r="AMD53" s="13"/>
+      <c r="AME53" s="13"/>
+      <c r="AMF53" s="13"/>
+      <c r="AMG53" s="13"/>
+      <c r="AMH53" s="13"/>
+    </row>
+    <row r="54" spans="1:1022" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="12"/>
+    </row>
+    <row r="56" spans="1:1022" x14ac:dyDescent="0.25">
       <c r="D56" s="8"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1022" x14ac:dyDescent="0.25">
       <c r="D58" s="8"/>
     </row>
   </sheetData>
